--- a/Engine/Tables/SaleProductInfoTable.xlsx
+++ b/Engine/Tables/SaleProductInfoTable.xlsx
@@ -13,13 +13,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Replace</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Desc</t>
-  </si>
-  <si>
-    <t>Replace</t>
   </si>
   <si>
     <t>Price</t>
@@ -37,13 +40,10 @@
     <t>ItemKinds_01</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>샘플 판매 상품 정보</t>
   </si>
   <si>
     <t>Sample</t>
-  </si>
-  <si>
-    <t>샘플 판매 상품 정보</t>
   </si>
 </sst>
 </file>
@@ -296,10 +296,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="14.43"/>
-    <col customWidth="1" min="6" max="6" width="16.29"/>
-    <col customWidth="1" min="7" max="8" width="14.43"/>
-    <col customWidth="1" min="9" max="9" width="15.86"/>
+    <col customWidth="1" min="1" max="1" width="15.86"/>
+    <col customWidth="1" min="2" max="6" width="14.43"/>
+    <col customWidth="1" min="7" max="7" width="16.29"/>
+    <col customWidth="1" min="8" max="9" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -335,29 +335,29 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="1">
         <v>0.0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
         <v>0.0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>-1.0</v>
       </c>
       <c r="F2" s="1">
         <v>-1.0</v>
       </c>
       <c r="G2" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="H2" s="1">
         <v>0.0</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>-1.0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="1"/>
